--- a/Results_Saving/Small_Scale_Network/topo_tree.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_tree.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fymeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRRG717\Desktop\Service_availability_evaluating_WMN\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039D3474-195B-4A8D-8322-417CBE64E31F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C498F-0DEB-44FF-8584-0EA3ECCAA907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,31 +34,31 @@
     <t>fail_rate</t>
   </si>
   <si>
-    <t>(1, 5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(2, 5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3, 6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(4, 6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(5, 7)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(6, 7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(7, 8)</t>
+    <t>(0, 4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1, 4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(3, 5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(5, 6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -533,7 +533,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>18</v>

--- a/Results_Saving/Small_Scale_Network/topo_tree.xlsx
+++ b/Results_Saving/Small_Scale_Network/topo_tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NRRG717\Desktop\Service_availability_evaluating_WMN\Results_Saving\Small_Scale_Network\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodingProjects\Python_work\2023\Service_availability_evaluating\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507C498F-0DEB-44FF-8584-0EA3ECCAA907}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FC28F7-5ED5-4F16-A753-EA8DB643EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>node_pair</t>
   </si>
@@ -46,19 +46,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 4)</t>
+    <t>(1, 5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(1, 4)</t>
+    <t>(3, 6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(3, 5)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(5, 6)</t>
+    <t>(5, 7)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,9 +151,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -195,9 +191,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,26 +226,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,26 +261,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,18 +437,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,7 +481,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -533,7 +495,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>15</v>
@@ -547,7 +509,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -561,7 +523,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>18</v>
@@ -573,9 +535,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
         <v>18</v>
@@ -584,20 +546,6 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
         <v>0.1</v>
       </c>
     </row>
